--- a/Excel/DataTable.xlsx
+++ b/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CocosProject\Project-demo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F645714A-D14A-403C-875C-D84681AB1A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F7515-6BE3-4C1A-A448-72A63C5DA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC6C1F5A-12AA-4AB9-83E4-6681C71CF742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC6C1F5A-12AA-4AB9-83E4-6681C71CF742}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponData" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C312D-4A1C-418A-8C1A-B45B40158EE7}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" activeCellId="1" sqref="A1:K5 G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B6B0D-35A5-4F86-89D5-4853607B8C01}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -920,7 +920,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E4" s="1">
         <v>15</v>
@@ -958,7 +958,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>

--- a/Excel/DataTable.xlsx
+++ b/Excel/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CocosProject\Project-demo\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F7515-6BE3-4C1A-A448-72A63C5DA623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532EE1F0-6384-4CA3-B05F-1BCF720A5691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC6C1F5A-12AA-4AB9-83E4-6681C71CF742}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC6C1F5A-12AA-4AB9-83E4-6681C71CF742}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponData" sheetId="1" r:id="rId1"/>
@@ -135,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屠龙宝刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倚天屠龙剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武器库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,14 +207,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小锯鳄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D001,D002,D001,D001,D002</t>
   </si>
   <si>
-    <t>大毛驴</t>
+    <t>屠龙刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倚天剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C312D-4A1C-418A-8C1A-B45B40158EE7}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B6B0D-35A5-4F86-89D5-4853607B8C01}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -841,13 +841,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -859,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>500</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>500</v>

--- a/Excel/DataTable.xlsx
+++ b/Excel/DataTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,9 @@
     <t>武器库</t>
   </si>
   <si>
+    <t>技能库</t>
+  </si>
+  <si>
     <t>生命值</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>Weapons</t>
   </si>
   <si>
+    <t>Skills</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
@@ -105,12 +111,18 @@
     <t>20001,20002,20001,20001</t>
   </si>
   <si>
+    <t>30001</t>
+  </si>
+  <si>
     <t>法师</t>
   </si>
   <si>
     <t>20001,20002,20001,20002</t>
   </si>
   <si>
+    <t>30002</t>
+  </si>
+  <si>
     <t>攻击加成</t>
   </si>
   <si>
@@ -156,9 +168,21 @@
     <t>技能类型</t>
   </si>
   <si>
+    <t>技能目标</t>
+  </si>
+  <si>
+    <t>技能触发时机</t>
+  </si>
+  <si>
+    <t>效果触发条件</t>
+  </si>
+  <si>
     <t>技能效果</t>
   </si>
   <si>
+    <t>效果参数</t>
+  </si>
+  <si>
     <t>技能效果描述</t>
   </si>
   <si>
@@ -174,9 +198,21 @@
     <t>SkillType</t>
   </si>
   <si>
+    <t>SkillTarget</t>
+  </si>
+  <si>
+    <t>SkillTurn</t>
+  </si>
+  <si>
+    <t>EffectCondition</t>
+  </si>
+  <si>
     <t>SkillEffect</t>
   </si>
   <si>
+    <t>EffectArgs</t>
+  </si>
+  <si>
     <t>SkillInfo</t>
   </si>
   <si>
@@ -189,19 +225,37 @@
     <t>bool</t>
   </si>
   <si>
-    <t>被动1</t>
-  </si>
-  <si>
-    <t>damage_increase_5</t>
+    <t>array</t>
+  </si>
+  <si>
+    <t>致命打击</t>
+  </si>
+  <si>
+    <t>SELF</t>
+  </si>
+  <si>
+    <t>BATTLE_START</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>DAMAGE_INCREASE</t>
   </si>
   <si>
     <t>伤害增加5点</t>
   </si>
   <si>
-    <t>主动1</t>
-  </si>
-  <si>
-    <t>poison_debuff_5</t>
+    <t>毒液攻击</t>
+  </si>
+  <si>
+    <t>ENEMY</t>
+  </si>
+  <si>
+    <t>PRE_ATTACK</t>
+  </si>
+  <si>
+    <t>POSION</t>
   </si>
   <si>
     <t>中毒每秒掉血5</t>
@@ -856,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1197,18 +1254,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="25.125"/>
+    <col min="3" max="4" width="25.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,142 +1302,154 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:12">
+    <row r="4" ht="16.5" spans="1:13">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6">
         <v>500</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="6">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.3</v>
-      </c>
-      <c r="K4">
-        <v>0.2</v>
       </c>
       <c r="L4">
         <v>0.2</v>
       </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" ht="16.5" spans="1:13">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6">
         <v>500</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="6">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>35</v>
-      </c>
-      <c r="G5">
-        <v>0.3</v>
       </c>
       <c r="H5">
         <v>0.3</v>
@@ -1389,17 +1458,20 @@
         <v>0.3</v>
       </c>
       <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
         <v>1.3</v>
-      </c>
-      <c r="K5">
-        <v>0.3</v>
       </c>
       <c r="L5">
         <v>0.3</v>
       </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="4:4">
-      <c r="D10" s="6"/>
+    <row r="10" spans="5:5">
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,31 +1498,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1458,69 +1530,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1528,7 +1600,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -1563,7 +1635,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -1602,129 +1674,193 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="15" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="13" customHeight="1" spans="1:11">
       <c r="A4" s="2">
         <v>30001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="15" spans="1:11">
       <c r="A5" s="2">
         <v>30002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="2">
         <v>50</v>
       </c>
-      <c r="G5" s="2">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
     </row>
